--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.1-canada-wipA\InputData\web-app\OCCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\web-app\OCCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,15 @@
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OCCF-DpLOCU" sheetId="2" r:id="rId2"/>
-    <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId3"/>
+    <sheet name="OCCF-DpMOCU" sheetId="4" r:id="rId3"/>
+    <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Source:</t>
   </si>
@@ -53,6 +54,9 @@
     <t>One Large Output Currency Unit</t>
   </si>
   <si>
+    <t>For the U.S. model:</t>
+  </si>
+  <si>
     <t>Large Output Currency Unit</t>
   </si>
   <si>
@@ -68,29 +72,50 @@
     <t>OCCF Dollars per Small Output Currency Unit</t>
   </si>
   <si>
-    <t>For the Canada model:</t>
-  </si>
-  <si>
-    <t>billion 2015 CAN dollars</t>
-  </si>
-  <si>
-    <t>2015 CAN dollars</t>
-  </si>
-  <si>
-    <t>Costs were entered in input files in 2015 CAN dollars, so no</t>
-  </si>
-  <si>
-    <t>currency conversion is needed here.</t>
-  </si>
-  <si>
-    <t>none needed for Canada model</t>
+    <t>2018 dollars</t>
+  </si>
+  <si>
+    <t>See cpi.xlsx</t>
+  </si>
+  <si>
+    <t>2012 dollars are worth more than 2018 dollars, so we need a</t>
+  </si>
+  <si>
+    <t>value less than 1 in this variable.</t>
+  </si>
+  <si>
+    <t>This is why we multiply, not divide, by the conversion</t>
+  </si>
+  <si>
+    <t>factor above.</t>
+  </si>
+  <si>
+    <t>Medium Output Currency Unit</t>
+  </si>
+  <si>
+    <t>OCCF Dollars per Medium Output Currency Unit</t>
+  </si>
+  <si>
+    <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
+  </si>
+  <si>
+    <t>2019 dollars per 2012 dollar</t>
+  </si>
+  <si>
+    <t>which in this case is "2012 dollars per 2019 dollar."</t>
+  </si>
+  <si>
+    <t>million 2019 dollars</t>
+  </si>
+  <si>
+    <t>billion 2019 dollars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +125,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,7 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,103 +474,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>0.89805481563188172</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>19</v>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -571,23 +634,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <f>10^9</f>
-        <v>1000000000</v>
+        <f>10^9*About!$A$26</f>
+        <v>898054815.63188171</v>
       </c>
     </row>
   </sheetData>
@@ -604,22 +667,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="8">
+        <f>10^6*About!$A$26</f>
+        <v>898054.81563188171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="31.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="7">
-        <v>1</v>
+        <f>1*About!A26</f>
+        <v>0.89805481563188172</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25310"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,7 +18,7 @@
     <sheet name="OCCF-DpMOCU" sheetId="4" r:id="rId3"/>
     <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,9 +37,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
+    <t>OCCF Dollars per Large Output Currency Unit</t>
+  </si>
+  <si>
+    <t>OCCF Dollars per Medium Output Currency Unit</t>
+  </si>
+  <si>
+    <t>OCCF Dollars per Small Output Currency Unit</t>
+  </si>
+  <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>See cpi.xlsx</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -60,74 +73,62 @@
     <t>web application interface do not get too large.</t>
   </si>
   <si>
+    <t>For the U.S. model:</t>
+  </si>
+  <si>
+    <t>Large Output Currency Unit</t>
+  </si>
+  <si>
+    <t>billion 2020 dollars</t>
+  </si>
+  <si>
+    <t>Medium Output Currency Unit</t>
+  </si>
+  <si>
+    <t>million 2020 dollars</t>
+  </si>
+  <si>
+    <t>Small Output Currency Unit</t>
+  </si>
+  <si>
+    <t>2020 dollars</t>
+  </si>
+  <si>
+    <t>2019 dollars per 2012 dollar</t>
+  </si>
+  <si>
+    <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
+  </si>
+  <si>
+    <t>which in this case is "2012 dollars per 2020 dollar."</t>
+  </si>
+  <si>
+    <t>2012 dollars are worth more than 2020 dollars, so we need a</t>
+  </si>
+  <si>
+    <t>value less than 1 in this variable.</t>
+  </si>
+  <si>
+    <t>This is why we multiply, not divide, by the conversion</t>
+  </si>
+  <si>
+    <t>factor above.</t>
+  </si>
+  <si>
+    <t>One Large Output Currency Unit</t>
+  </si>
+  <si>
     <t>Dollars</t>
   </si>
   <si>
-    <t>One Large Output Currency Unit</t>
-  </si>
-  <si>
-    <t>For the U.S. model:</t>
-  </si>
-  <si>
-    <t>Large Output Currency Unit</t>
-  </si>
-  <si>
-    <t>Small Output Currency Unit</t>
-  </si>
-  <si>
     <t>One Small Output Currency Unit</t>
-  </si>
-  <si>
-    <t>OCCF Dollars per Large Output Currency Unit</t>
-  </si>
-  <si>
-    <t>OCCF Dollars per Small Output Currency Unit</t>
-  </si>
-  <si>
-    <t>See cpi.xlsx</t>
-  </si>
-  <si>
-    <t>value less than 1 in this variable.</t>
-  </si>
-  <si>
-    <t>This is why we multiply, not divide, by the conversion</t>
-  </si>
-  <si>
-    <t>factor above.</t>
-  </si>
-  <si>
-    <t>Medium Output Currency Unit</t>
-  </si>
-  <si>
-    <t>OCCF Dollars per Medium Output Currency Unit</t>
-  </si>
-  <si>
-    <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
-  </si>
-  <si>
-    <t>2019 dollars per 2012 dollar</t>
-  </si>
-  <si>
-    <t>2020 dollars</t>
-  </si>
-  <si>
-    <t>million 2020 dollars</t>
-  </si>
-  <si>
-    <t>billion 2020 dollars</t>
-  </si>
-  <si>
-    <t>which in this case is "2012 dollars per 2020 dollar."</t>
-  </si>
-  <si>
-    <t>2012 dollars are worth more than 2020 dollars, so we need a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,17 +171,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -526,143 +525,143 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>0.88711067149387013</v>
       </c>
       <c r="B26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -680,21 +679,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
         <f>10^9*About!$A$26</f>
         <v>887110671.49387014</v>
       </c>
@@ -713,21 +712,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6">
         <f>10^6*About!$A$26</f>
         <v>887110.67149387009</v>
       </c>
@@ -746,21 +745,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
+        <v>27</v>
+      </c>
+      <c r="B2">
         <f>1*About!A26</f>
         <v>0.88711067149387013</v>
       </c>
@@ -768,4 +767,288 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86574FB0-E14F-4009-BA60-EC5CDF730B74}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F808C7-3DCD-4495-A052-9AA41FFB9D49}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BDDCA4C-F5F4-4C2D-B26C-DE70E8BE6D50}"/>
 </file>
--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,31 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25310"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.1-canada-wipA\InputData\web-app\OCCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\web-app\OCCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E145C7-DA32-48E1-AEFA-9C38A9EDE413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OCCF-DpLOCU" sheetId="2" r:id="rId2"/>
-    <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId3"/>
+    <sheet name="OCCF-DpMOCU" sheetId="4" r:id="rId3"/>
+    <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+  <si>
+    <t>OCCF Dollars per Large Output Currency Unit</t>
+  </si>
+  <si>
+    <t>OCCF Dollars per Medium Output Currency Unit</t>
+  </si>
+  <si>
+    <t>OCCF Dollars per Small Output Currency Unit</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>See cpi.xlsx</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -47,50 +73,62 @@
     <t>web application interface do not get too large.</t>
   </si>
   <si>
+    <t>For the U.S. model:</t>
+  </si>
+  <si>
+    <t>Large Output Currency Unit</t>
+  </si>
+  <si>
+    <t>billion 2020 dollars</t>
+  </si>
+  <si>
+    <t>Medium Output Currency Unit</t>
+  </si>
+  <si>
+    <t>million 2020 dollars</t>
+  </si>
+  <si>
+    <t>Small Output Currency Unit</t>
+  </si>
+  <si>
+    <t>2020 dollars</t>
+  </si>
+  <si>
+    <t>2019 dollars per 2012 dollar</t>
+  </si>
+  <si>
+    <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
+  </si>
+  <si>
+    <t>which in this case is "2012 dollars per 2020 dollar."</t>
+  </si>
+  <si>
+    <t>2012 dollars are worth more than 2020 dollars, so we need a</t>
+  </si>
+  <si>
+    <t>value less than 1 in this variable.</t>
+  </si>
+  <si>
+    <t>This is why we multiply, not divide, by the conversion</t>
+  </si>
+  <si>
+    <t>factor above.</t>
+  </si>
+  <si>
+    <t>One Large Output Currency Unit</t>
+  </si>
+  <si>
     <t>Dollars</t>
   </si>
   <si>
-    <t>One Large Output Currency Unit</t>
-  </si>
-  <si>
-    <t>Large Output Currency Unit</t>
-  </si>
-  <si>
-    <t>Small Output Currency Unit</t>
-  </si>
-  <si>
     <t>One Small Output Currency Unit</t>
   </si>
-  <si>
-    <t>OCCF Dollars per Large Output Currency Unit</t>
-  </si>
-  <si>
-    <t>OCCF Dollars per Small Output Currency Unit</t>
-  </si>
-  <si>
-    <t>For the Canada model:</t>
-  </si>
-  <si>
-    <t>billion 2015 CAN dollars</t>
-  </si>
-  <si>
-    <t>2015 CAN dollars</t>
-  </si>
-  <si>
-    <t>Costs were entered in input files in 2015 CAN dollars, so no</t>
-  </si>
-  <si>
-    <t>currency conversion is needed here.</t>
-  </si>
-  <si>
-    <t>none needed for Canada model</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +138,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -141,18 +171,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,6 +274,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -281,6 +326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,104 +518,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>0.88711067149387013</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>19</v>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -563,7 +671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -571,23 +679,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
-        <f>10^9</f>
-        <v>1000000000</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
+        <f>10^9*About!$A$26</f>
+        <v>887110671.49387014</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -604,25 +712,343 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="6">
+        <f>10^6*About!$A$26</f>
+        <v>887110.67149387009</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <f>1*About!A26</f>
+        <v>0.88711067149387013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86574FB0-E14F-4009-BA60-EC5CDF730B74}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F808C7-3DCD-4495-A052-9AA41FFB9D49}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BDDCA4C-F5F4-4C2D-B26C-DE70E8BE6D50}"/>
 </file>
--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,7 +18,7 @@
     <sheet name="OCCF-DpMOCU" sheetId="4" r:id="rId3"/>
     <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,98 +36,98 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>This is a conversion factor that converts dollars (the unit used for</t>
+  </si>
+  <si>
+    <t>internal calculations in the model) to whatever currency output</t>
+  </si>
+  <si>
+    <t>unit is desired (for a given country/region).</t>
+  </si>
+  <si>
+    <t>This both allows for currency localization by country and allows</t>
+  </si>
+  <si>
+    <t>the outputs to be scaled so the Y-axis values on graphs in the</t>
+  </si>
+  <si>
+    <t>web application interface do not get too large.</t>
+  </si>
+  <si>
+    <t>Dollars</t>
+  </si>
+  <si>
+    <t>One Large Output Currency Unit</t>
+  </si>
+  <si>
+    <t>For the U.S. model:</t>
+  </si>
+  <si>
+    <t>Large Output Currency Unit</t>
+  </si>
+  <si>
+    <t>Small Output Currency Unit</t>
+  </si>
+  <si>
+    <t>One Small Output Currency Unit</t>
+  </si>
+  <si>
     <t>OCCF Dollars per Large Output Currency Unit</t>
   </si>
   <si>
+    <t>OCCF Dollars per Small Output Currency Unit</t>
+  </si>
+  <si>
+    <t>See cpi.xlsx</t>
+  </si>
+  <si>
+    <t>value less than 1 in this variable.</t>
+  </si>
+  <si>
+    <t>This is why we multiply, not divide, by the conversion</t>
+  </si>
+  <si>
+    <t>factor above.</t>
+  </si>
+  <si>
+    <t>Medium Output Currency Unit</t>
+  </si>
+  <si>
     <t>OCCF Dollars per Medium Output Currency Unit</t>
   </si>
   <si>
-    <t>OCCF Dollars per Small Output Currency Unit</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>See cpi.xlsx</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>This is a conversion factor that converts dollars (the unit used for</t>
-  </si>
-  <si>
-    <t>internal calculations in the model) to whatever currency output</t>
-  </si>
-  <si>
-    <t>unit is desired (for a given country/region).</t>
-  </si>
-  <si>
-    <t>This both allows for currency localization by country and allows</t>
-  </si>
-  <si>
-    <t>the outputs to be scaled so the Y-axis values on graphs in the</t>
-  </si>
-  <si>
-    <t>web application interface do not get too large.</t>
-  </si>
-  <si>
-    <t>For the U.S. model:</t>
-  </si>
-  <si>
-    <t>Large Output Currency Unit</t>
+    <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
+  </si>
+  <si>
+    <t>2019 dollars per 2012 dollar</t>
+  </si>
+  <si>
+    <t>2020 dollars</t>
+  </si>
+  <si>
+    <t>million 2020 dollars</t>
   </si>
   <si>
     <t>billion 2020 dollars</t>
   </si>
   <si>
-    <t>Medium Output Currency Unit</t>
-  </si>
-  <si>
-    <t>million 2020 dollars</t>
-  </si>
-  <si>
-    <t>Small Output Currency Unit</t>
-  </si>
-  <si>
-    <t>2020 dollars</t>
-  </si>
-  <si>
-    <t>2019 dollars per 2012 dollar</t>
-  </si>
-  <si>
-    <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
-  </si>
-  <si>
     <t>which in this case is "2012 dollars per 2020 dollar."</t>
   </si>
   <si>
     <t>2012 dollars are worth more than 2020 dollars, so we need a</t>
-  </si>
-  <si>
-    <t>value less than 1 in this variable.</t>
-  </si>
-  <si>
-    <t>This is why we multiply, not divide, by the conversion</t>
-  </si>
-  <si>
-    <t>factor above.</t>
-  </si>
-  <si>
-    <t>One Large Output Currency Unit</t>
-  </si>
-  <si>
-    <t>Dollars</t>
-  </si>
-  <si>
-    <t>One Small Output Currency Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,15 +170,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -525,143 +526,143 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.88711067149387013</v>
       </c>
       <c r="B26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -679,21 +680,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
         <f>10^9*About!$A$26</f>
         <v>887110671.49387014</v>
       </c>
@@ -712,21 +713,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="6">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8">
         <f>10^6*About!$A$26</f>
         <v>887110.67149387009</v>
       </c>
@@ -745,21 +746,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7">
         <f>1*About!A26</f>
         <v>0.88711067149387013</v>
       </c>
@@ -767,288 +768,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
-                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86574FB0-E14F-4009-BA60-EC5CDF730B74}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F808C7-3DCD-4495-A052-9AA41FFB9D49}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BDDCA4C-F5F4-4C2D-B26C-DE70E8BE6D50}"/>
 </file>
--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\web-app\OCCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/web-app/OCCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E145C7-DA32-48E1-AEFA-9C38A9EDE413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{23E145C7-DA32-48E1-AEFA-9C38A9EDE413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CCBDAFA-2EB4-433F-B889-D461C17C4E69}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>OCCF Dollars per Large Output Currency Unit</t>
   </si>
@@ -122,13 +122,39 @@
   </si>
   <si>
     <t>One Small Output Currency Unit</t>
+  </si>
+  <si>
+    <t>For the Canadian model:</t>
+  </si>
+  <si>
+    <t>billion 2021 dollars (CAD)</t>
+  </si>
+  <si>
+    <t>million 2021 dollars (CAD)</t>
+  </si>
+  <si>
+    <t>2021 dollars (CAD)</t>
+  </si>
+  <si>
+    <t>Conversion Factor (from cpi.xlsx):</t>
+  </si>
+  <si>
+    <t>Costs entered in input files as 2012 USD</t>
+  </si>
+  <si>
+    <t>2012 USD per 2021 CAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +164,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -171,16 +205,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,33 +559,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -553,80 +594,95 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.88711067149387013</v>
       </c>
@@ -634,34 +690,92 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>0.67597768403505909</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -677,25 +791,27 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2">
-        <f>10^9*About!$A$26</f>
-        <v>887110671.49387014</v>
+      <c r="B2" s="9">
+        <f>10^9*About!$A$47</f>
+        <v>675977684.03505909</v>
       </c>
     </row>
   </sheetData>
@@ -710,25 +826,27 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6">
-        <f>10^6*About!$A$26</f>
-        <v>887110.67149387009</v>
+      <c r="B2" s="10">
+        <f>10^6*About!$A$47</f>
+        <v>675977.68403505906</v>
       </c>
     </row>
   </sheetData>
@@ -743,25 +861,27 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2">
-        <f>1*About!A26</f>
-        <v>0.88711067149387013</v>
+      <c r="B2" s="12">
+        <f>1*About!$A$47</f>
+        <v>0.67597768403505909</v>
       </c>
     </row>
   </sheetData>
@@ -770,17 +890,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -804,6 +935,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -890,6 +1023,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -1025,30 +1170,32 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86574FB0-E14F-4009-BA60-EC5CDF730B74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BDDCA4C-F5F4-4C2D-B26C-DE70E8BE6D50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F808C7-3DCD-4495-A052-9AA41FFB9D49}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B44209A-103B-4E2B-91D4-8915B153F43A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BDDCA4C-F5F4-4C2D-B26C-DE70E8BE6D50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86574FB0-E14F-4009-BA60-EC5CDF730B74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/web-app/OCCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\web-app\OCCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{23E145C7-DA32-48E1-AEFA-9C38A9EDE413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CCBDAFA-2EB4-433F-B889-D461C17C4E69}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE08BC3-E946-45CA-B8AA-25DBD82F49F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -149,10 +149,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -205,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -213,14 +212,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,34 +554,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -594,95 +589,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.88711067149387013</v>
       </c>
@@ -690,91 +667,90 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
         <v>0.67597768403505909</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -795,21 +771,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <f>10^9*About!$A$47</f>
         <v>675977684.03505909</v>
       </c>
@@ -827,24 +803,24 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <f>10^6*About!$A$47</f>
         <v>675977.68403505906</v>
       </c>
@@ -861,25 +837,25 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="7">
         <f>1*About!$A$47</f>
         <v>0.67597768403505909</v>
       </c>
@@ -890,23 +866,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1170,32 +1135,60 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86574FB0-E14F-4009-BA60-EC5CDF730B74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B44209A-103B-4E2B-91D4-8915B153F43A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BDDCA4C-F5F4-4C2D-B26C-DE70E8BE6D50}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B44209A-103B-4E2B-91D4-8915B153F43A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86574FB0-E14F-4009-BA60-EC5CDF730B74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -875,8 +875,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -902,6 +902,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1002,6 +1003,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1163,23 +1169,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B44209A-103B-4E2B-91D4-8915B153F43A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5460824B-B750-4023-8645-ED4F29EDDE72}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
